--- a/新建 Microsoft Excel 工作表.xlsx
+++ b/新建 Microsoft Excel 工作表.xlsx
@@ -9,17 +9,166 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+  <si>
+    <t>收纳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软装工艺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化妆品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面霜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼霜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化妆水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防晒霜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护手霜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体乳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗护用品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗发水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沐浴露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包、配饰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳钉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水壶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sales</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incomes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incomeR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,6 +183,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -43,7 +199,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,12 +207,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -361,17 +537,891 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AM41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="29" width="6.75" style="1" customWidth="1"/>
+    <col min="30" max="35" width="9" style="1"/>
+    <col min="36" max="36" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AG1" s="2">
+        <v>45000</v>
+      </c>
+      <c r="AH1" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2">
+        <f>O4/Q2</f>
+        <v>300</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R2" s="2">
+        <f>N4*O4</f>
+        <v>60000</v>
+      </c>
+      <c r="S2" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AF2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="2">
+        <f>$AG$1</f>
+        <v>45000</v>
+      </c>
+      <c r="AH2" s="2">
+        <f>AG2*(1+$AH$1)</f>
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AF3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="2">
+        <f>AH2+$AG$1</f>
+        <v>99000</v>
+      </c>
+      <c r="AH3" s="2">
+        <f>AG3*(1+$AH$1)</f>
+        <v>118800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="L4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M4" s="2">
+        <v>3000</v>
+      </c>
+      <c r="N4" s="2">
+        <f>(L4+M4)/2</f>
+        <v>2000</v>
+      </c>
+      <c r="O4" s="2">
+        <v>30</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AF4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="2">
+        <f t="shared" ref="AG4:AG41" si="0">AH3+$AG$1</f>
+        <v>163800</v>
+      </c>
+      <c r="AH4" s="2">
+        <f t="shared" ref="AH4:AH41" si="1">AG4*(1+$AH$1)</f>
+        <v>196560</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="L5" s="2">
+        <f>L4*$S$2</f>
+        <v>200</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" ref="M5:N5" si="2">M4*$S$2</f>
+        <v>600</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AF5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="2">
+        <f t="shared" si="0"/>
+        <v>241560</v>
+      </c>
+      <c r="AH5" s="2">
+        <f t="shared" si="1"/>
+        <v>289872</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AF6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG6" s="2">
+        <f t="shared" si="0"/>
+        <v>334872</v>
+      </c>
+      <c r="AH6" s="2">
+        <f t="shared" si="1"/>
+        <v>401846.39999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="L7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AF7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG7" s="2">
+        <f t="shared" si="0"/>
+        <v>446846.39999999997</v>
+      </c>
+      <c r="AH7" s="2">
+        <f t="shared" si="1"/>
+        <v>536215.67999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="L8" s="2">
+        <f>N5*O4</f>
+        <v>12000</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AF8" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG8" s="2">
+        <f t="shared" si="0"/>
+        <v>581215.67999999993</v>
+      </c>
+      <c r="AH8" s="2">
+        <f t="shared" si="1"/>
+        <v>697458.81599999988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AF9" s="1">
+        <v>8</v>
+      </c>
+      <c r="AG9" s="2">
+        <f t="shared" si="0"/>
+        <v>742458.81599999988</v>
+      </c>
+      <c r="AH9" s="2">
+        <f t="shared" si="1"/>
+        <v>890950.5791999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AF10" s="1">
+        <v>9</v>
+      </c>
+      <c r="AG10" s="1">
+        <f t="shared" si="0"/>
+        <v>935950.5791999998</v>
+      </c>
+      <c r="AH10" s="1">
+        <f t="shared" si="1"/>
+        <v>1123140.6950399997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AF11" s="1">
+        <v>10</v>
+      </c>
+      <c r="AG11" s="1">
+        <f t="shared" si="0"/>
+        <v>1168140.6950399997</v>
+      </c>
+      <c r="AH11" s="1">
+        <f t="shared" si="1"/>
+        <v>1401768.8340479995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AF12" s="1">
+        <v>11</v>
+      </c>
+      <c r="AG12" s="1">
+        <f t="shared" si="0"/>
+        <v>1446768.8340479995</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="1"/>
+        <v>1736122.6008575994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AF13" s="1">
+        <v>12</v>
+      </c>
+      <c r="AG13" s="1">
+        <f t="shared" si="0"/>
+        <v>1781122.6008575994</v>
+      </c>
+      <c r="AH13" s="1">
+        <f t="shared" si="1"/>
+        <v>2137347.121029119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AF14" s="1">
+        <v>13</v>
+      </c>
+      <c r="AG14" s="1">
+        <f t="shared" si="0"/>
+        <v>2182347.121029119</v>
+      </c>
+      <c r="AH14" s="1">
+        <f t="shared" si="1"/>
+        <v>2618816.5452349428</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AF15" s="1">
+        <v>14</v>
+      </c>
+      <c r="AG15" s="1">
+        <f t="shared" si="0"/>
+        <v>2663816.5452349428</v>
+      </c>
+      <c r="AH15" s="1">
+        <f t="shared" si="1"/>
+        <v>3196579.8542819312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AF16" s="1">
+        <v>15</v>
+      </c>
+      <c r="AG16" s="1">
+        <f t="shared" si="0"/>
+        <v>3241579.8542819312</v>
+      </c>
+      <c r="AH16" s="1">
+        <f t="shared" si="1"/>
+        <v>3889895.8251383174</v>
+      </c>
+    </row>
+    <row r="17" spans="32:39" x14ac:dyDescent="0.15">
+      <c r="AF17" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG17" s="1">
+        <f t="shared" si="0"/>
+        <v>3934895.8251383174</v>
+      </c>
+      <c r="AH17" s="1">
+        <f t="shared" si="1"/>
+        <v>4721874.9901659805</v>
+      </c>
+    </row>
+    <row r="18" spans="32:39" x14ac:dyDescent="0.15">
+      <c r="AF18" s="1">
+        <v>17</v>
+      </c>
+      <c r="AG18" s="1">
+        <f t="shared" si="0"/>
+        <v>4766874.9901659805</v>
+      </c>
+      <c r="AH18" s="1">
+        <f t="shared" si="1"/>
+        <v>5720249.9881991763</v>
+      </c>
+      <c r="AM18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="32:39" x14ac:dyDescent="0.15">
+      <c r="AF19" s="1">
+        <v>18</v>
+      </c>
+      <c r="AG19" s="1">
+        <f t="shared" si="0"/>
+        <v>5765249.9881991763</v>
+      </c>
+      <c r="AH19" s="1">
+        <f t="shared" si="1"/>
+        <v>6918299.9858390111</v>
+      </c>
+    </row>
+    <row r="20" spans="32:39" x14ac:dyDescent="0.15">
+      <c r="AF20" s="1">
+        <v>19</v>
+      </c>
+      <c r="AG20" s="1">
+        <f t="shared" si="0"/>
+        <v>6963299.9858390111</v>
+      </c>
+      <c r="AH20" s="1">
+        <f t="shared" si="1"/>
+        <v>8355959.9830068126</v>
+      </c>
+    </row>
+    <row r="21" spans="32:39" x14ac:dyDescent="0.15">
+      <c r="AF21" s="1">
+        <v>20</v>
+      </c>
+      <c r="AG21" s="1">
+        <f t="shared" si="0"/>
+        <v>8400959.9830068126</v>
+      </c>
+      <c r="AH21" s="1">
+        <f t="shared" si="1"/>
+        <v>10081151.979608174</v>
+      </c>
+    </row>
+    <row r="22" spans="32:39" x14ac:dyDescent="0.15">
+      <c r="AF22" s="1">
+        <v>21</v>
+      </c>
+      <c r="AG22" s="1">
+        <f t="shared" si="0"/>
+        <v>10126151.979608174</v>
+      </c>
+      <c r="AH22" s="1">
+        <f t="shared" si="1"/>
+        <v>12151382.375529809</v>
+      </c>
+    </row>
+    <row r="23" spans="32:39" x14ac:dyDescent="0.15">
+      <c r="AF23" s="1">
+        <v>22</v>
+      </c>
+      <c r="AG23" s="1">
+        <f t="shared" si="0"/>
+        <v>12196382.375529809</v>
+      </c>
+      <c r="AH23" s="1">
+        <f t="shared" si="1"/>
+        <v>14635658.850635771</v>
+      </c>
+    </row>
+    <row r="24" spans="32:39" x14ac:dyDescent="0.15">
+      <c r="AF24" s="1">
+        <v>23</v>
+      </c>
+      <c r="AG24" s="1">
+        <f t="shared" si="0"/>
+        <v>14680658.850635771</v>
+      </c>
+      <c r="AH24" s="1">
+        <f t="shared" si="1"/>
+        <v>17616790.620762926</v>
+      </c>
+    </row>
+    <row r="25" spans="32:39" x14ac:dyDescent="0.15">
+      <c r="AF25" s="1">
+        <v>24</v>
+      </c>
+      <c r="AG25" s="1">
+        <f t="shared" si="0"/>
+        <v>17661790.620762926</v>
+      </c>
+      <c r="AH25" s="1">
+        <f t="shared" si="1"/>
+        <v>21194148.744915511</v>
+      </c>
+    </row>
+    <row r="26" spans="32:39" x14ac:dyDescent="0.15">
+      <c r="AF26" s="1">
+        <v>25</v>
+      </c>
+      <c r="AG26" s="1">
+        <f t="shared" si="0"/>
+        <v>21239148.744915511</v>
+      </c>
+      <c r="AH26" s="1">
+        <f t="shared" si="1"/>
+        <v>25486978.493898612</v>
+      </c>
+    </row>
+    <row r="27" spans="32:39" x14ac:dyDescent="0.15">
+      <c r="AF27" s="1">
+        <v>26</v>
+      </c>
+      <c r="AG27" s="1">
+        <f t="shared" si="0"/>
+        <v>25531978.493898612</v>
+      </c>
+      <c r="AH27" s="1">
+        <f t="shared" si="1"/>
+        <v>30638374.192678332</v>
+      </c>
+    </row>
+    <row r="28" spans="32:39" x14ac:dyDescent="0.15">
+      <c r="AF28" s="1">
+        <v>27</v>
+      </c>
+      <c r="AG28" s="1">
+        <f t="shared" si="0"/>
+        <v>30683374.192678332</v>
+      </c>
+      <c r="AH28" s="1">
+        <f t="shared" si="1"/>
+        <v>36820049.031213999</v>
+      </c>
+    </row>
+    <row r="29" spans="32:39" x14ac:dyDescent="0.15">
+      <c r="AF29" s="1">
+        <v>28</v>
+      </c>
+      <c r="AG29" s="1">
+        <f t="shared" si="0"/>
+        <v>36865049.031213999</v>
+      </c>
+      <c r="AH29" s="1">
+        <f t="shared" si="1"/>
+        <v>44238058.8374568</v>
+      </c>
+    </row>
+    <row r="30" spans="32:39" x14ac:dyDescent="0.15">
+      <c r="AF30" s="1">
+        <v>29</v>
+      </c>
+      <c r="AG30" s="1">
+        <f t="shared" si="0"/>
+        <v>44283058.8374568</v>
+      </c>
+      <c r="AH30" s="1">
+        <f t="shared" si="1"/>
+        <v>53139670.604948156</v>
+      </c>
+    </row>
+    <row r="31" spans="32:39" x14ac:dyDescent="0.15">
+      <c r="AF31" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG31" s="1">
+        <f t="shared" si="0"/>
+        <v>53184670.604948156</v>
+      </c>
+      <c r="AH31" s="1">
+        <f t="shared" si="1"/>
+        <v>63821604.725937784</v>
+      </c>
+    </row>
+    <row r="32" spans="32:39" x14ac:dyDescent="0.15">
+      <c r="AF32" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG32" s="1">
+        <f t="shared" si="0"/>
+        <v>63866604.725937784</v>
+      </c>
+      <c r="AH32" s="1">
+        <f t="shared" si="1"/>
+        <v>76639925.671125337</v>
+      </c>
+    </row>
+    <row r="33" spans="32:34" x14ac:dyDescent="0.15">
+      <c r="AF33" s="1">
+        <v>32</v>
+      </c>
+      <c r="AG33" s="1">
+        <f t="shared" si="0"/>
+        <v>76684925.671125337</v>
+      </c>
+      <c r="AH33" s="1">
+        <f t="shared" si="1"/>
+        <v>92021910.805350408</v>
+      </c>
+    </row>
+    <row r="34" spans="32:34" x14ac:dyDescent="0.15">
+      <c r="AF34" s="1">
+        <v>33</v>
+      </c>
+      <c r="AG34" s="1">
+        <f t="shared" si="0"/>
+        <v>92066910.805350408</v>
+      </c>
+      <c r="AH34" s="1">
+        <f t="shared" si="1"/>
+        <v>110480292.96642049</v>
+      </c>
+    </row>
+    <row r="35" spans="32:34" x14ac:dyDescent="0.15">
+      <c r="AF35" s="1">
+        <v>34</v>
+      </c>
+      <c r="AG35" s="1">
+        <f t="shared" si="0"/>
+        <v>110525292.96642049</v>
+      </c>
+      <c r="AH35" s="1">
+        <f t="shared" si="1"/>
+        <v>132630351.55970457</v>
+      </c>
+    </row>
+    <row r="36" spans="32:34" x14ac:dyDescent="0.15">
+      <c r="AF36" s="1">
+        <v>35</v>
+      </c>
+      <c r="AG36" s="1">
+        <f t="shared" si="0"/>
+        <v>132675351.55970457</v>
+      </c>
+      <c r="AH36" s="1">
+        <f t="shared" si="1"/>
+        <v>159210421.87164548</v>
+      </c>
+    </row>
+    <row r="37" spans="32:34" x14ac:dyDescent="0.15">
+      <c r="AF37" s="1">
+        <v>36</v>
+      </c>
+      <c r="AG37" s="1">
+        <f t="shared" si="0"/>
+        <v>159255421.87164548</v>
+      </c>
+      <c r="AH37" s="1">
+        <f t="shared" si="1"/>
+        <v>191106506.24597457</v>
+      </c>
+    </row>
+    <row r="38" spans="32:34" x14ac:dyDescent="0.15">
+      <c r="AF38" s="1">
+        <v>37</v>
+      </c>
+      <c r="AG38" s="1">
+        <f t="shared" si="0"/>
+        <v>191151506.24597457</v>
+      </c>
+      <c r="AH38" s="1">
+        <f t="shared" si="1"/>
+        <v>229381807.49516949</v>
+      </c>
+    </row>
+    <row r="39" spans="32:34" x14ac:dyDescent="0.15">
+      <c r="AF39" s="1">
+        <v>38</v>
+      </c>
+      <c r="AG39" s="1">
+        <f t="shared" si="0"/>
+        <v>229426807.49516949</v>
+      </c>
+      <c r="AH39" s="1">
+        <f t="shared" si="1"/>
+        <v>275312168.99420339</v>
+      </c>
+    </row>
+    <row r="40" spans="32:34" x14ac:dyDescent="0.15">
+      <c r="AF40" s="1">
+        <v>39</v>
+      </c>
+      <c r="AG40" s="1">
+        <f t="shared" si="0"/>
+        <v>275357168.99420339</v>
+      </c>
+      <c r="AH40" s="1">
+        <f t="shared" si="1"/>
+        <v>330428602.79304403</v>
+      </c>
+    </row>
+    <row r="41" spans="32:34" x14ac:dyDescent="0.15">
+      <c r="AF41" s="1">
+        <v>40</v>
+      </c>
+      <c r="AG41" s="1">
+        <f t="shared" si="0"/>
+        <v>330473602.79304403</v>
+      </c>
+      <c r="AH41" s="1">
+        <f t="shared" si="1"/>
+        <v>396568323.3516528</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/新建 Microsoft Excel 工作表.xlsx
+++ b/新建 Microsoft Excel 工作表.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -199,7 +199,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -222,17 +222,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -539,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:N4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -608,11 +623,11 @@
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
-      <c r="AG1" s="2">
-        <v>45000</v>
-      </c>
-      <c r="AH1" s="3">
-        <v>0.2</v>
+      <c r="AG1" s="6">
+        <v>50000</v>
+      </c>
+      <c r="AH1" s="7">
+        <v>0.1</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.15">
@@ -670,16 +685,16 @@
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
-      <c r="AF2" s="1">
+      <c r="AF2" s="2">
         <v>1</v>
       </c>
       <c r="AG2" s="2">
         <f>$AG$1</f>
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="AH2" s="2">
         <f>AG2*(1+$AH$1)</f>
-        <v>54000</v>
+        <v>55000.000000000007</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.15">
@@ -733,16 +748,16 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
-      <c r="AF3" s="1">
+      <c r="AF3" s="2">
         <v>2</v>
       </c>
       <c r="AG3" s="2">
         <f>AH2+$AG$1</f>
-        <v>99000</v>
+        <v>105000</v>
       </c>
       <c r="AH3" s="2">
         <f>AG3*(1+$AH$1)</f>
-        <v>118800</v>
+        <v>115500.00000000001</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.15">
@@ -789,16 +804,16 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
-      <c r="AF4" s="1">
+      <c r="AF4" s="2">
         <v>3</v>
       </c>
       <c r="AG4" s="2">
         <f t="shared" ref="AG4:AG41" si="0">AH3+$AG$1</f>
-        <v>163800</v>
+        <v>165500</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" ref="AH4:AH41" si="1">AG4*(1+$AH$1)</f>
-        <v>196560</v>
+        <v>182050.00000000003</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.15">
@@ -841,16 +856,16 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
-      <c r="AF5" s="1">
+      <c r="AF5" s="2">
         <v>4</v>
       </c>
       <c r="AG5" s="2">
         <f t="shared" si="0"/>
-        <v>241560</v>
+        <v>232050.00000000003</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="1"/>
-        <v>289872</v>
+        <v>255255.00000000006</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.15">
@@ -892,16 +907,16 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
-      <c r="AF6" s="1">
+      <c r="AF6" s="2">
         <v>5</v>
       </c>
       <c r="AG6" s="2">
         <f t="shared" si="0"/>
-        <v>334872</v>
+        <v>305255.00000000006</v>
       </c>
       <c r="AH6" s="2">
         <f t="shared" si="1"/>
-        <v>401846.39999999997</v>
+        <v>335780.50000000012</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.15">
@@ -925,16 +940,16 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
-      <c r="AF7" s="1">
+      <c r="AF7" s="2">
         <v>6</v>
       </c>
       <c r="AG7" s="2">
         <f t="shared" si="0"/>
-        <v>446846.39999999997</v>
+        <v>385780.50000000012</v>
       </c>
       <c r="AH7" s="2">
         <f t="shared" si="1"/>
-        <v>536215.67999999993</v>
+        <v>424358.55000000016</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.15">
@@ -959,16 +974,16 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
-      <c r="AF8" s="1">
+      <c r="AF8" s="2">
         <v>7</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="0"/>
-        <v>581215.67999999993</v>
+        <v>474358.55000000016</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="1"/>
-        <v>697458.81599999988</v>
+        <v>521794.4050000002</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.15">
@@ -990,149 +1005,149 @@
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
-      <c r="AF9" s="1">
+      <c r="AF9" s="2">
         <v>8</v>
       </c>
       <c r="AG9" s="2">
         <f t="shared" si="0"/>
-        <v>742458.81599999988</v>
+        <v>571794.40500000026</v>
       </c>
       <c r="AH9" s="2">
         <f t="shared" si="1"/>
-        <v>890950.5791999998</v>
+        <v>628973.84550000029</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="AF10" s="1">
+      <c r="AF10" s="2">
         <v>9</v>
       </c>
-      <c r="AG10" s="1">
-        <f t="shared" si="0"/>
-        <v>935950.5791999998</v>
-      </c>
-      <c r="AH10" s="1">
-        <f t="shared" si="1"/>
-        <v>1123140.6950399997</v>
+      <c r="AG10" s="2">
+        <f t="shared" si="0"/>
+        <v>678973.84550000029</v>
+      </c>
+      <c r="AH10" s="2">
+        <f t="shared" si="1"/>
+        <v>746871.23005000036</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="AF11" s="1">
+      <c r="AF11" s="2">
         <v>10</v>
       </c>
-      <c r="AG11" s="1">
-        <f t="shared" si="0"/>
-        <v>1168140.6950399997</v>
-      </c>
-      <c r="AH11" s="1">
-        <f t="shared" si="1"/>
-        <v>1401768.8340479995</v>
+      <c r="AG11" s="2">
+        <f t="shared" si="0"/>
+        <v>796871.23005000036</v>
+      </c>
+      <c r="AH11" s="2">
+        <f t="shared" si="1"/>
+        <v>876558.35305500042</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="AF12" s="1">
+      <c r="AF12" s="2">
         <v>11</v>
       </c>
-      <c r="AG12" s="1">
-        <f t="shared" si="0"/>
-        <v>1446768.8340479995</v>
-      </c>
-      <c r="AH12" s="1">
-        <f t="shared" si="1"/>
-        <v>1736122.6008575994</v>
+      <c r="AG12" s="2">
+        <f t="shared" si="0"/>
+        <v>926558.35305500042</v>
+      </c>
+      <c r="AH12" s="2">
+        <f t="shared" si="1"/>
+        <v>1019214.1883605005</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="AF13" s="1">
+      <c r="AF13" s="2">
         <v>12</v>
       </c>
-      <c r="AG13" s="1">
-        <f t="shared" si="0"/>
-        <v>1781122.6008575994</v>
-      </c>
-      <c r="AH13" s="1">
-        <f t="shared" si="1"/>
-        <v>2137347.121029119</v>
+      <c r="AG13" s="2">
+        <f t="shared" si="0"/>
+        <v>1069214.1883605006</v>
+      </c>
+      <c r="AH13" s="2">
+        <f t="shared" si="1"/>
+        <v>1176135.6071965508</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="AF14" s="1">
+      <c r="AF14" s="2">
         <v>13</v>
       </c>
-      <c r="AG14" s="1">
-        <f t="shared" si="0"/>
-        <v>2182347.121029119</v>
-      </c>
-      <c r="AH14" s="1">
-        <f t="shared" si="1"/>
-        <v>2618816.5452349428</v>
+      <c r="AG14" s="2">
+        <f t="shared" si="0"/>
+        <v>1226135.6071965508</v>
+      </c>
+      <c r="AH14" s="2">
+        <f t="shared" si="1"/>
+        <v>1348749.1679162059</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="AF15" s="1">
+      <c r="AF15" s="2">
         <v>14</v>
       </c>
-      <c r="AG15" s="1">
-        <f t="shared" si="0"/>
-        <v>2663816.5452349428</v>
-      </c>
-      <c r="AH15" s="1">
-        <f t="shared" si="1"/>
-        <v>3196579.8542819312</v>
+      <c r="AG15" s="2">
+        <f t="shared" si="0"/>
+        <v>1398749.1679162059</v>
+      </c>
+      <c r="AH15" s="2">
+        <f t="shared" si="1"/>
+        <v>1538624.0847078266</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="AF16" s="1">
+      <c r="AF16" s="2">
         <v>15</v>
       </c>
-      <c r="AG16" s="1">
-        <f t="shared" si="0"/>
-        <v>3241579.8542819312</v>
-      </c>
-      <c r="AH16" s="1">
-        <f t="shared" si="1"/>
-        <v>3889895.8251383174</v>
+      <c r="AG16" s="2">
+        <f t="shared" si="0"/>
+        <v>1588624.0847078266</v>
+      </c>
+      <c r="AH16" s="2">
+        <f t="shared" si="1"/>
+        <v>1747486.4931786095</v>
       </c>
     </row>
     <row r="17" spans="32:39" x14ac:dyDescent="0.15">
-      <c r="AF17" s="1">
+      <c r="AF17" s="2">
         <v>16</v>
       </c>
-      <c r="AG17" s="1">
-        <f t="shared" si="0"/>
-        <v>3934895.8251383174</v>
-      </c>
-      <c r="AH17" s="1">
-        <f t="shared" si="1"/>
-        <v>4721874.9901659805</v>
+      <c r="AG17" s="2">
+        <f t="shared" si="0"/>
+        <v>1797486.4931786095</v>
+      </c>
+      <c r="AH17" s="2">
+        <f t="shared" si="1"/>
+        <v>1977235.1424964706</v>
       </c>
     </row>
     <row r="18" spans="32:39" x14ac:dyDescent="0.15">
-      <c r="AF18" s="1">
+      <c r="AF18" s="2">
         <v>17</v>
       </c>
-      <c r="AG18" s="1">
-        <f t="shared" si="0"/>
-        <v>4766874.9901659805</v>
-      </c>
-      <c r="AH18" s="1">
-        <f t="shared" si="1"/>
-        <v>5720249.9881991763</v>
+      <c r="AG18" s="2">
+        <f t="shared" si="0"/>
+        <v>2027235.1424964706</v>
+      </c>
+      <c r="AH18" s="2">
+        <f t="shared" si="1"/>
+        <v>2229958.6567461179</v>
       </c>
       <c r="AM18" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="32:39" x14ac:dyDescent="0.15">
-      <c r="AF19" s="1">
+      <c r="AF19" s="2">
         <v>18</v>
       </c>
-      <c r="AG19" s="1">
-        <f t="shared" si="0"/>
-        <v>5765249.9881991763</v>
-      </c>
-      <c r="AH19" s="1">
-        <f t="shared" si="1"/>
-        <v>6918299.9858390111</v>
+      <c r="AG19" s="2">
+        <f t="shared" si="0"/>
+        <v>2279958.6567461179</v>
+      </c>
+      <c r="AH19" s="2">
+        <f t="shared" si="1"/>
+        <v>2507954.52242073</v>
       </c>
     </row>
     <row r="20" spans="32:39" x14ac:dyDescent="0.15">
@@ -1141,11 +1156,11 @@
       </c>
       <c r="AG20" s="1">
         <f t="shared" si="0"/>
-        <v>6963299.9858390111</v>
+        <v>2557954.52242073</v>
       </c>
       <c r="AH20" s="1">
         <f t="shared" si="1"/>
-        <v>8355959.9830068126</v>
+        <v>2813749.9746628031</v>
       </c>
     </row>
     <row r="21" spans="32:39" x14ac:dyDescent="0.15">
@@ -1154,11 +1169,11 @@
       </c>
       <c r="AG21" s="1">
         <f t="shared" si="0"/>
-        <v>8400959.9830068126</v>
+        <v>2863749.9746628031</v>
       </c>
       <c r="AH21" s="1">
         <f t="shared" si="1"/>
-        <v>10081151.979608174</v>
+        <v>3150124.9721290837</v>
       </c>
     </row>
     <row r="22" spans="32:39" x14ac:dyDescent="0.15">
@@ -1167,11 +1182,11 @@
       </c>
       <c r="AG22" s="1">
         <f t="shared" si="0"/>
-        <v>10126151.979608174</v>
+        <v>3200124.9721290837</v>
       </c>
       <c r="AH22" s="1">
         <f t="shared" si="1"/>
-        <v>12151382.375529809</v>
+        <v>3520137.4693419924</v>
       </c>
     </row>
     <row r="23" spans="32:39" x14ac:dyDescent="0.15">
@@ -1180,11 +1195,11 @@
       </c>
       <c r="AG23" s="1">
         <f t="shared" si="0"/>
-        <v>12196382.375529809</v>
+        <v>3570137.4693419924</v>
       </c>
       <c r="AH23" s="1">
         <f t="shared" si="1"/>
-        <v>14635658.850635771</v>
+        <v>3927151.2162761921</v>
       </c>
     </row>
     <row r="24" spans="32:39" x14ac:dyDescent="0.15">
@@ -1193,11 +1208,11 @@
       </c>
       <c r="AG24" s="1">
         <f t="shared" si="0"/>
-        <v>14680658.850635771</v>
+        <v>3977151.2162761921</v>
       </c>
       <c r="AH24" s="1">
         <f t="shared" si="1"/>
-        <v>17616790.620762926</v>
+        <v>4374866.3379038116</v>
       </c>
     </row>
     <row r="25" spans="32:39" x14ac:dyDescent="0.15">
@@ -1206,11 +1221,11 @@
       </c>
       <c r="AG25" s="1">
         <f t="shared" si="0"/>
-        <v>17661790.620762926</v>
+        <v>4424866.3379038116</v>
       </c>
       <c r="AH25" s="1">
         <f t="shared" si="1"/>
-        <v>21194148.744915511</v>
+        <v>4867352.9716941928</v>
       </c>
     </row>
     <row r="26" spans="32:39" x14ac:dyDescent="0.15">
@@ -1219,11 +1234,11 @@
       </c>
       <c r="AG26" s="1">
         <f t="shared" si="0"/>
-        <v>21239148.744915511</v>
+        <v>4917352.9716941928</v>
       </c>
       <c r="AH26" s="1">
         <f t="shared" si="1"/>
-        <v>25486978.493898612</v>
+        <v>5409088.2688636128</v>
       </c>
     </row>
     <row r="27" spans="32:39" x14ac:dyDescent="0.15">
@@ -1232,11 +1247,11 @@
       </c>
       <c r="AG27" s="1">
         <f t="shared" si="0"/>
-        <v>25531978.493898612</v>
+        <v>5459088.2688636128</v>
       </c>
       <c r="AH27" s="1">
         <f t="shared" si="1"/>
-        <v>30638374.192678332</v>
+        <v>6004997.0957499743</v>
       </c>
     </row>
     <row r="28" spans="32:39" x14ac:dyDescent="0.15">
@@ -1245,11 +1260,11 @@
       </c>
       <c r="AG28" s="1">
         <f t="shared" si="0"/>
-        <v>30683374.192678332</v>
+        <v>6054997.0957499743</v>
       </c>
       <c r="AH28" s="1">
         <f t="shared" si="1"/>
-        <v>36820049.031213999</v>
+        <v>6660496.8053249726</v>
       </c>
     </row>
     <row r="29" spans="32:39" x14ac:dyDescent="0.15">
@@ -1258,11 +1273,11 @@
       </c>
       <c r="AG29" s="1">
         <f t="shared" si="0"/>
-        <v>36865049.031213999</v>
+        <v>6710496.8053249726</v>
       </c>
       <c r="AH29" s="1">
         <f t="shared" si="1"/>
-        <v>44238058.8374568</v>
+        <v>7381546.4858574709</v>
       </c>
     </row>
     <row r="30" spans="32:39" x14ac:dyDescent="0.15">
@@ -1271,11 +1286,11 @@
       </c>
       <c r="AG30" s="1">
         <f t="shared" si="0"/>
-        <v>44283058.8374568</v>
+        <v>7431546.4858574709</v>
       </c>
       <c r="AH30" s="1">
         <f t="shared" si="1"/>
-        <v>53139670.604948156</v>
+        <v>8174701.1344432188</v>
       </c>
     </row>
     <row r="31" spans="32:39" x14ac:dyDescent="0.15">
@@ -1284,11 +1299,11 @@
       </c>
       <c r="AG31" s="1">
         <f t="shared" si="0"/>
-        <v>53184670.604948156</v>
+        <v>8224701.1344432188</v>
       </c>
       <c r="AH31" s="1">
         <f t="shared" si="1"/>
-        <v>63821604.725937784</v>
+        <v>9047171.2478875406</v>
       </c>
     </row>
     <row r="32" spans="32:39" x14ac:dyDescent="0.15">
@@ -1297,11 +1312,11 @@
       </c>
       <c r="AG32" s="1">
         <f t="shared" si="0"/>
-        <v>63866604.725937784</v>
+        <v>9097171.2478875406</v>
       </c>
       <c r="AH32" s="1">
         <f t="shared" si="1"/>
-        <v>76639925.671125337</v>
+        <v>10006888.372676296</v>
       </c>
     </row>
     <row r="33" spans="32:34" x14ac:dyDescent="0.15">
@@ -1310,11 +1325,11 @@
       </c>
       <c r="AG33" s="1">
         <f t="shared" si="0"/>
-        <v>76684925.671125337</v>
+        <v>10056888.372676296</v>
       </c>
       <c r="AH33" s="1">
         <f t="shared" si="1"/>
-        <v>92021910.805350408</v>
+        <v>11062577.209943926</v>
       </c>
     </row>
     <row r="34" spans="32:34" x14ac:dyDescent="0.15">
@@ -1323,11 +1338,11 @@
       </c>
       <c r="AG34" s="1">
         <f t="shared" si="0"/>
-        <v>92066910.805350408</v>
+        <v>11112577.209943926</v>
       </c>
       <c r="AH34" s="1">
         <f t="shared" si="1"/>
-        <v>110480292.96642049</v>
+        <v>12223834.93093832</v>
       </c>
     </row>
     <row r="35" spans="32:34" x14ac:dyDescent="0.15">
@@ -1336,11 +1351,11 @@
       </c>
       <c r="AG35" s="1">
         <f t="shared" si="0"/>
-        <v>110525292.96642049</v>
+        <v>12273834.93093832</v>
       </c>
       <c r="AH35" s="1">
         <f t="shared" si="1"/>
-        <v>132630351.55970457</v>
+        <v>13501218.424032154</v>
       </c>
     </row>
     <row r="36" spans="32:34" x14ac:dyDescent="0.15">
@@ -1349,11 +1364,11 @@
       </c>
       <c r="AG36" s="1">
         <f t="shared" si="0"/>
-        <v>132675351.55970457</v>
+        <v>13551218.424032154</v>
       </c>
       <c r="AH36" s="1">
         <f t="shared" si="1"/>
-        <v>159210421.87164548</v>
+        <v>14906340.26643537</v>
       </c>
     </row>
     <row r="37" spans="32:34" x14ac:dyDescent="0.15">
@@ -1362,11 +1377,11 @@
       </c>
       <c r="AG37" s="1">
         <f t="shared" si="0"/>
-        <v>159255421.87164548</v>
+        <v>14956340.26643537</v>
       </c>
       <c r="AH37" s="1">
         <f t="shared" si="1"/>
-        <v>191106506.24597457</v>
+        <v>16451974.293078909</v>
       </c>
     </row>
     <row r="38" spans="32:34" x14ac:dyDescent="0.15">
@@ -1375,11 +1390,11 @@
       </c>
       <c r="AG38" s="1">
         <f t="shared" si="0"/>
-        <v>191151506.24597457</v>
+        <v>16501974.293078909</v>
       </c>
       <c r="AH38" s="1">
         <f t="shared" si="1"/>
-        <v>229381807.49516949</v>
+        <v>18152171.7223868</v>
       </c>
     </row>
     <row r="39" spans="32:34" x14ac:dyDescent="0.15">
@@ -1388,11 +1403,11 @@
       </c>
       <c r="AG39" s="1">
         <f t="shared" si="0"/>
-        <v>229426807.49516949</v>
+        <v>18202171.7223868</v>
       </c>
       <c r="AH39" s="1">
         <f t="shared" si="1"/>
-        <v>275312168.99420339</v>
+        <v>20022388.894625481</v>
       </c>
     </row>
     <row r="40" spans="32:34" x14ac:dyDescent="0.15">
@@ -1401,11 +1416,11 @@
       </c>
       <c r="AG40" s="1">
         <f t="shared" si="0"/>
-        <v>275357168.99420339</v>
+        <v>20072388.894625481</v>
       </c>
       <c r="AH40" s="1">
         <f t="shared" si="1"/>
-        <v>330428602.79304403</v>
+        <v>22079627.78408803</v>
       </c>
     </row>
     <row r="41" spans="32:34" x14ac:dyDescent="0.15">
@@ -1414,15 +1429,16 @@
       </c>
       <c r="AG41" s="1">
         <f t="shared" si="0"/>
-        <v>330473602.79304403</v>
+        <v>22129627.78408803</v>
       </c>
       <c r="AH41" s="1">
         <f t="shared" si="1"/>
-        <v>396568323.3516528</v>
+        <v>24342590.562496837</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>